--- a/data/trans_orig/P6715-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>3091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8268</v>
+        <v>9367</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01149485911057453</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00374499015944683</v>
+        <v>0.003729632687291527</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03074307216100464</v>
+        <v>0.03483129413880193</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>3091</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8244</v>
+        <v>9267</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00718574019014533</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002356397955797169</v>
+        <v>0.002368374637143815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0191617061478172</v>
+        <v>0.02154015715394604</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6101</v>
+        <v>6914</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007323444574354146</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02268547188574968</v>
+        <v>0.02570856454051626</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7385</v>
+        <v>7392</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01318724604926889</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04579101879108351</v>
+        <v>0.04583183647998727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -847,19 +847,19 @@
         <v>4096</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9401</v>
+        <v>9423</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00952162879202333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002414164184959326</v>
+        <v>0.002423261777938809</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02185284135599869</v>
+        <v>0.02190369599266088</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>21365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14144</v>
+        <v>13286</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31029</v>
+        <v>30697</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07944106752980117</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05259381747074317</v>
+        <v>0.04940130185044113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1153751137586467</v>
+        <v>0.1141415342557597</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -897,19 +897,19 @@
         <v>15805</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9695</v>
+        <v>9015</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25463</v>
+        <v>26008</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09800080391134526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06011686498549613</v>
+        <v>0.05589602508302835</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1578870933918671</v>
+        <v>0.1612663441211372</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -918,19 +918,19 @@
         <v>37170</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26502</v>
+        <v>27396</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50590</v>
+        <v>51543</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08639862224452724</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06160174446275428</v>
+        <v>0.06367992081791896</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1175926020093574</v>
+        <v>0.1198090029357018</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>61826</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47690</v>
+        <v>48753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77194</v>
+        <v>76563</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.229888909446735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1773289742690988</v>
+        <v>0.1812820955103435</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2870343884832542</v>
+        <v>0.2846859312999782</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -968,19 +968,19 @@
         <v>41372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31046</v>
+        <v>29465</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52736</v>
+        <v>52343</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2565330577171687</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1925052127588538</v>
+        <v>0.1827029366890794</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.32699354583183</v>
+        <v>0.3245557952924412</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -989,19 +989,19 @@
         <v>103198</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83874</v>
+        <v>85845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121093</v>
+        <v>122060</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2398770965420624</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1949590635428035</v>
+        <v>0.1995409364936511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2814728154640506</v>
+        <v>0.2837214967991782</v>
       </c>
     </row>
     <row r="8">
@@ -1018,19 +1018,19 @@
         <v>180686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>165262</v>
+        <v>167203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>195945</v>
+        <v>196005</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6718517193385352</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6145008383556514</v>
+        <v>0.6217166670264165</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7285914031568617</v>
+        <v>0.7288129836968182</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -1039,19 +1039,19 @@
         <v>101971</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>89796</v>
+        <v>89552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>115017</v>
+        <v>115059</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6322788923222172</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5567857100034888</v>
+        <v>0.5552736063968016</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7131761852790635</v>
+        <v>0.7134333051310943</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>267</v>
@@ -1060,19 +1060,19 @@
         <v>282657</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>262916</v>
+        <v>261031</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>302295</v>
+        <v>301500</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6570169122312417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6111318427926402</v>
+        <v>0.6067486262346293</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7026653223441555</v>
+        <v>0.700816154209783</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5909</v>
+        <v>4281</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002558120919166173</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01438887192839773</v>
+        <v>0.01042419789021961</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5318</v>
+        <v>4258</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001542720252752151</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007809513189419382</v>
+        <v>0.006252265121125321</v>
       </c>
     </row>
     <row r="11">
@@ -1227,19 +1227,19 @@
         <v>4494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10445</v>
+        <v>11290</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01094253187591458</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002537998550301093</v>
+        <v>0.002549382143577359</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02543240679162016</v>
+        <v>0.02749082007926835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1248,19 +1248,19 @@
         <v>5583</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2107</v>
+        <v>2087</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13250</v>
+        <v>12642</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02065516732679092</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007793722166315978</v>
+        <v>0.007719605104266133</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04901908157325009</v>
+        <v>0.04676923080323749</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1269,19 +1269,19 @@
         <v>10077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5294</v>
+        <v>4677</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18692</v>
+        <v>18031</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01479779002089347</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007773683902663805</v>
+        <v>0.006867270096343341</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02744732472379782</v>
+        <v>0.02647727840656981</v>
       </c>
     </row>
     <row r="12">
@@ -1298,19 +1298,19 @@
         <v>47690</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35614</v>
+        <v>34439</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61914</v>
+        <v>60420</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1161214420057366</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08671739380665622</v>
+        <v>0.08385590505433983</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1507568466806088</v>
+        <v>0.1471188615790933</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -1319,19 +1319,19 @@
         <v>41770</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30518</v>
+        <v>31645</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54441</v>
+        <v>54178</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.154523403495722</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1128986228228945</v>
+        <v>0.1170685006236147</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2013988573843128</v>
+        <v>0.2004274426180731</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>85</v>
@@ -1340,19 +1340,19 @@
         <v>89460</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71440</v>
+        <v>71443</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>108642</v>
+        <v>108461</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1313644185970256</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.104904611027473</v>
+        <v>0.1049084307619</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1595319361261072</v>
+        <v>0.1592668708521718</v>
       </c>
     </row>
     <row r="13">
@@ -1369,19 +1369,19 @@
         <v>94984</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78007</v>
+        <v>77839</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112878</v>
+        <v>115792</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2312780331484758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1899419201469101</v>
+        <v>0.1895324846630015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2748496461906291</v>
+        <v>0.281944995993365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -1390,19 +1390,19 @@
         <v>62325</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49049</v>
+        <v>49362</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77673</v>
+        <v>77874</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2305683843647061</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1814515871316753</v>
+        <v>0.182610077005464</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2873454666285443</v>
+        <v>0.2880877875804808</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>144</v>
@@ -1411,19 +1411,19 @@
         <v>157309</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136186</v>
+        <v>136250</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180528</v>
+        <v>180564</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2309963506671823</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1999785127052934</v>
+        <v>0.2000727147061964</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2650909686703776</v>
+        <v>0.2651437447838852</v>
       </c>
     </row>
     <row r="14">
@@ -1440,19 +1440,19 @@
         <v>262473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>241929</v>
+        <v>240814</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>282795</v>
+        <v>280757</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6390998720507068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5890784746537676</v>
+        <v>0.5863625290474019</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6885843320513095</v>
+        <v>0.6836221596635477</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -1461,19 +1461,19 @@
         <v>160634</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>144851</v>
+        <v>141746</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177708</v>
+        <v>176420</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.594253044812781</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5358646878739144</v>
+        <v>0.5243800312034671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6574185174415981</v>
+        <v>0.6526528438233066</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>384</v>
@@ -1482,19 +1482,19 @@
         <v>423106</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>398110</v>
+        <v>397815</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>447861</v>
+        <v>449287</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6212987204621465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5845937019928801</v>
+        <v>0.5841598168635292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6576487552450291</v>
+        <v>0.6597427194747404</v>
       </c>
     </row>
     <row r="15">
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5950</v>
+        <v>7245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003778280312955997</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01857085877332416</v>
+        <v>0.0226118520361472</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8040</v>
+        <v>7886</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01051653232700179</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03750941061406846</v>
+        <v>0.03679026816870556</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1628,19 +1628,19 @@
         <v>3465</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10382</v>
+        <v>9441</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006479090468459582</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001981079302538376</v>
+        <v>0.002013362289605511</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01941425929729147</v>
+        <v>0.01765530870288988</v>
       </c>
     </row>
     <row r="17">
@@ -1657,19 +1657,19 @@
         <v>3964</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12939</v>
+        <v>11878</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01237025937561323</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003018446764555329</v>
+        <v>0.003028797320221354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04038189206383122</v>
+        <v>0.03707024999937213</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1678,19 +1678,19 @@
         <v>4730</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11729</v>
+        <v>10936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02206884959892886</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005556147205396838</v>
+        <v>0.005545766777305145</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05472301340393111</v>
+        <v>0.05102308517559231</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1699,19 +1699,19 @@
         <v>8694</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3372</v>
+        <v>3325</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17921</v>
+        <v>16461</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01625762525545825</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006305103109784872</v>
+        <v>0.006217798027121624</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03351253154367948</v>
+        <v>0.03078127882660876</v>
       </c>
     </row>
     <row r="18">
@@ -1728,19 +1728,19 @@
         <v>39683</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28499</v>
+        <v>28303</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54115</v>
+        <v>53059</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1238465524721646</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08894376359991886</v>
+        <v>0.08833186023663477</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1688896930027803</v>
+        <v>0.1655921855292238</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -1749,19 +1749,19 @@
         <v>33842</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23340</v>
+        <v>24616</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46416</v>
+        <v>48030</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.157889730177122</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1088904312956552</v>
+        <v>0.1148455285559857</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2165530663901688</v>
+        <v>0.2240812864406801</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -1770,19 +1770,19 @@
         <v>73525</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>57499</v>
+        <v>58200</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>93733</v>
+        <v>91355</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1374916580395293</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1075226645380784</v>
+        <v>0.1088337944106557</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1752805906456606</v>
+        <v>0.1708338408645257</v>
       </c>
     </row>
     <row r="19">
@@ -1799,19 +1799,19 @@
         <v>50468</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38124</v>
+        <v>36929</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66347</v>
+        <v>64882</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1575054977570916</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1189815257728968</v>
+        <v>0.1152530004471946</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2070626014344477</v>
+        <v>0.2024910921160137</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -1820,19 +1820,19 @@
         <v>47693</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34751</v>
+        <v>35588</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62363</v>
+        <v>62763</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2225070918424904</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1621289437038739</v>
+        <v>0.1660342601031711</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2909524528033993</v>
+        <v>0.2928167165809635</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -1841,19 +1841,19 @@
         <v>98160</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80360</v>
+        <v>81401</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>119725</v>
+        <v>118111</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1835592821901792</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1502721696006605</v>
+        <v>0.152218763495657</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2238855418604143</v>
+        <v>0.2208674120039903</v>
       </c>
     </row>
     <row r="20">
@@ -1870,19 +1870,19 @@
         <v>225094</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207975</v>
+        <v>209110</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>242809</v>
+        <v>241519</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7024994100821745</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6490733991763187</v>
+        <v>0.6526137103569636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7577853791472813</v>
+        <v>0.753760294074335</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>115</v>
@@ -1891,19 +1891,19 @@
         <v>125823</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111077</v>
+        <v>109180</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>140887</v>
+        <v>141432</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5870177960544569</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5182216169915859</v>
+        <v>0.5093707147513147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6572989325259608</v>
+        <v>0.6598405142494133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>318</v>
@@ -1912,19 +1912,19 @@
         <v>350917</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>327170</v>
+        <v>326653</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>373479</v>
+        <v>372476</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6562123440463737</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6118057011602744</v>
+        <v>0.6108400909475683</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6984040718727158</v>
+        <v>0.6965273987590169</v>
       </c>
     </row>
     <row r="21">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3845</v>
+        <v>4994</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002152613060507247</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009227712926579663</v>
+        <v>0.01198527248708983</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2037,19 +2037,19 @@
         <v>3922</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9158</v>
+        <v>9800</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01325932381877928</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003318859706987242</v>
+        <v>0.003298291241564913</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03096177925799296</v>
+        <v>0.03313411698350496</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2058,19 +2058,19 @@
         <v>4819</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1830</v>
+        <v>1047</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11278</v>
+        <v>9762</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006763436723771787</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002567944714130775</v>
+        <v>0.001469884448559577</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01582942658857546</v>
+        <v>0.01370131618482992</v>
       </c>
     </row>
     <row r="23">
@@ -2087,19 +2087,19 @@
         <v>11543</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5949</v>
+        <v>6522</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18860</v>
+        <v>20209</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02770119677526707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01427686153645317</v>
+        <v>0.01565123862525857</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04526096310069853</v>
+        <v>0.04849884978545305</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2108,19 +2108,19 @@
         <v>7948</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3867</v>
+        <v>3713</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14777</v>
+        <v>14879</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02687231111607769</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01307416164833827</v>
+        <v>0.01255405474231824</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04995980818885842</v>
+        <v>0.05030712078055902</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -2129,19 +2129,19 @@
         <v>19491</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12239</v>
+        <v>11741</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29964</v>
+        <v>29534</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02735709439475945</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01717888664599466</v>
+        <v>0.01647994288893015</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04205716766255975</v>
+        <v>0.04145326504046012</v>
       </c>
     </row>
     <row r="24">
@@ -2158,19 +2158,19 @@
         <v>54949</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41429</v>
+        <v>41346</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>69487</v>
+        <v>70050</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.131871664271692</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09942515699749337</v>
+        <v>0.09922585724000475</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1667603565732407</v>
+        <v>0.1681101950916289</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -2179,19 +2179,19 @@
         <v>49772</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37815</v>
+        <v>38070</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64069</v>
+        <v>63307</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1682801693662509</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1278521762092623</v>
+        <v>0.1287143733644009</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2166203196021032</v>
+        <v>0.214043488387487</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>99</v>
@@ -2200,19 +2200,19 @@
         <v>104721</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>86916</v>
+        <v>86404</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>123772</v>
+        <v>125013</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1469862378378625</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1219941556911467</v>
+        <v>0.1212761272920631</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1737262329633988</v>
+        <v>0.1754674030441286</v>
       </c>
     </row>
     <row r="25">
@@ -2229,19 +2229,19 @@
         <v>106276</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88935</v>
+        <v>89174</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125010</v>
+        <v>124509</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2550489874736587</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2134326991532359</v>
+        <v>0.2140070753820827</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3000080583783169</v>
+        <v>0.2988074798099156</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -2250,19 +2250,19 @@
         <v>64218</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51319</v>
+        <v>51302</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78602</v>
+        <v>79722</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2171219132299611</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.173511307748834</v>
+        <v>0.1734538397094783</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.265754130257756</v>
+        <v>0.269540953086375</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>170</v>
@@ -2271,19 +2271,19 @@
         <v>170494</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>147608</v>
+        <v>147510</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>193495</v>
+        <v>193468</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2393039973314612</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2071817247733249</v>
+        <v>0.2070434727528213</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2715888515720944</v>
+        <v>0.2715506552124653</v>
       </c>
     </row>
     <row r="26">
@@ -2300,19 +2300,19 @@
         <v>243023</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>221613</v>
+        <v>223649</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>264964</v>
+        <v>263081</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.583225538418875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5318444991477335</v>
+        <v>0.5367299594712438</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6358809961177064</v>
+        <v>0.6313614863635325</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>160</v>
@@ -2321,19 +2321,19 @@
         <v>169909</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>152839</v>
+        <v>154026</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>185782</v>
+        <v>187475</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5744662824689311</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5167519102035598</v>
+        <v>0.5207660899322401</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6281325769337992</v>
+        <v>0.6338578132816983</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>391</v>
@@ -2342,19 +2342,19 @@
         <v>412932</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>388874</v>
+        <v>385693</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>439937</v>
+        <v>439949</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5795892337121451</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5458215654834859</v>
+        <v>0.5413555262665114</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.617492743778948</v>
+        <v>0.6175092668762849</v>
       </c>
     </row>
     <row r="27">
@@ -2446,19 +2446,19 @@
         <v>6250</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2814</v>
+        <v>2227</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14946</v>
+        <v>13068</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004411263106489915</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001986405446185522</v>
+        <v>0.001571585950180095</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01054939439116018</v>
+        <v>0.009224163106861489</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2467,19 +2467,19 @@
         <v>6176</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2137</v>
+        <v>2361</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14111</v>
+        <v>13340</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006558177441171524</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002269538553480413</v>
+        <v>0.002507571863854316</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01498430819594345</v>
+        <v>0.01416628217238113</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -2488,19 +2488,19 @@
         <v>12425</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6997</v>
+        <v>6193</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21743</v>
+        <v>21067</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005268503092226738</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002966963384308322</v>
+        <v>0.00262599917175472</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009219227828274175</v>
+        <v>0.008932581896021849</v>
       </c>
     </row>
     <row r="29">
@@ -2517,19 +2517,19 @@
         <v>21970</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13381</v>
+        <v>14516</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33345</v>
+        <v>33906</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01550746696001938</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009444943829404168</v>
+        <v>0.01024603868156885</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02353628042654027</v>
+        <v>0.02393248549749953</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -2538,19 +2538,19 @@
         <v>20388</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11998</v>
+        <v>12727</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31184</v>
+        <v>30811</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02165066108563212</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01274105480257683</v>
+        <v>0.01351521715258878</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0331149813828016</v>
+        <v>0.03271807151534687</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -2559,19 +2559,19 @@
         <v>42358</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30476</v>
+        <v>30668</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>57462</v>
+        <v>57183</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01796037882499129</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01292194309645255</v>
+        <v>0.01300374039719129</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02436443731269863</v>
+        <v>0.02424621161020534</v>
       </c>
     </row>
     <row r="30">
@@ -2588,19 +2588,19 @@
         <v>163687</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>139945</v>
+        <v>138692</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>189284</v>
+        <v>188755</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1155380552330574</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09878008446042741</v>
+        <v>0.09789550270961174</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1336054484538195</v>
+        <v>0.1332320334069675</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>131</v>
@@ -2609,19 +2609,19 @@
         <v>141189</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>119514</v>
+        <v>119972</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>165365</v>
+        <v>164439</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1499302716723946</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1269131669484508</v>
+        <v>0.1273996970548668</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1756032097233701</v>
+        <v>0.1746197492397654</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>286</v>
@@ -2630,19 +2630,19 @@
         <v>304876</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>271393</v>
+        <v>271093</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>338773</v>
+        <v>339090</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1292705002839157</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1150736033266726</v>
+        <v>0.1149460317373677</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1436433765730267</v>
+        <v>0.1437774790603094</v>
       </c>
     </row>
     <row r="31">
@@ -2659,19 +2659,19 @@
         <v>313553</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>280873</v>
+        <v>279831</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>346097</v>
+        <v>344116</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2213208890153444</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1982534421902478</v>
+        <v>0.1975180626571524</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2442920612165284</v>
+        <v>0.2428932362066376</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>203</v>
@@ -2680,19 +2680,19 @@
         <v>215608</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>189306</v>
+        <v>192185</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>241130</v>
+        <v>246225</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2289569856185094</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.201026871844461</v>
+        <v>0.204083445220932</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.256059348419646</v>
+        <v>0.2614699015462567</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>502</v>
@@ -2701,19 +2701,19 @@
         <v>529161</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>489476</v>
+        <v>487342</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>575306</v>
+        <v>571781</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.224369900909968</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2075428760161033</v>
+        <v>0.2066378840562511</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2439356068377508</v>
+        <v>0.242441127654346</v>
       </c>
     </row>
     <row r="32">
@@ -2730,19 +2730,19 @@
         <v>911276</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>877366</v>
+        <v>872423</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>950833</v>
+        <v>945781</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6432223256850889</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6192869423804315</v>
+        <v>0.6157977430654064</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6711431776395164</v>
+        <v>0.6675772524119947</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>511</v>
@@ -2751,19 +2751,19 @@
         <v>558336</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>527792</v>
+        <v>528478</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>593975</v>
+        <v>591158</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5929039041822923</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5604686406199786</v>
+        <v>0.5611972013681145</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6307493525006511</v>
+        <v>0.6277584781102034</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1360</v>
@@ -2772,19 +2772,19 @@
         <v>1469612</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1420302</v>
+        <v>1421163</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1517304</v>
+        <v>1522017</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6231307168888982</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6022228177240259</v>
+        <v>0.6025876705427169</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6433525490962148</v>
+        <v>0.6453508629767523</v>
       </c>
     </row>
     <row r="33">
@@ -3116,19 +3116,19 @@
         <v>4270</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1093</v>
+        <v>1070</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10840</v>
+        <v>10721</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01769443702176426</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004530577872252653</v>
+        <v>0.004433201989605911</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04491874288131014</v>
+        <v>0.04442551429013818</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5217</v>
+        <v>5261</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005896483983359866</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03176624884312225</v>
+        <v>0.03203446305145886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -3158,19 +3158,19 @@
         <v>5238</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1977</v>
+        <v>1983</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11551</v>
+        <v>11714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01291675020247949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004875669662217986</v>
+        <v>0.004889539108659278</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02848221022506547</v>
+        <v>0.0288841118427797</v>
       </c>
     </row>
     <row r="5">
@@ -3187,19 +3187,19 @@
         <v>9196</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4598</v>
+        <v>4217</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16930</v>
+        <v>16532</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03810835948734214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01905399854751485</v>
+        <v>0.01747597911013036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07015603822859656</v>
+        <v>0.06850749378149573</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -3208,19 +3208,19 @@
         <v>8920</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3806</v>
+        <v>4327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15995</v>
+        <v>16020</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05431411547335688</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02317537385796093</v>
+        <v>0.02634397999531834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09739572135045084</v>
+        <v>0.09754222203602357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -3229,19 +3229,19 @@
         <v>18116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11269</v>
+        <v>11256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28837</v>
+        <v>28686</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04467102561416029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02778601311289989</v>
+        <v>0.02775592785740055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0711053218448242</v>
+        <v>0.07073285568821663</v>
       </c>
     </row>
     <row r="6">
@@ -3258,19 +3258,19 @@
         <v>35901</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25985</v>
+        <v>25468</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48201</v>
+        <v>48320</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1487691212223702</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1076795735980801</v>
+        <v>0.1055341955658208</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1997374993300856</v>
+        <v>0.200230634469354</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -3279,19 +3279,19 @@
         <v>24251</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16532</v>
+        <v>16079</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34128</v>
+        <v>33742</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1476607220715208</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.100663142897687</v>
+        <v>0.09790179508552922</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.207801663657194</v>
+        <v>0.2054529629059409</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -3300,19 +3300,19 @@
         <v>60152</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46736</v>
+        <v>46274</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76380</v>
+        <v>75904</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1483202650524667</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1152402747301559</v>
+        <v>0.1141002328325568</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1883354207660907</v>
+        <v>0.1871608594538564</v>
       </c>
     </row>
     <row r="7">
@@ -3329,19 +3329,19 @@
         <v>71519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58156</v>
+        <v>58072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85714</v>
+        <v>87341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2963662774007805</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2409902360647392</v>
+        <v>0.2406405007440007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3551884564989974</v>
+        <v>0.3619274321420952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -3350,19 +3350,19 @@
         <v>57256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46012</v>
+        <v>45697</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70420</v>
+        <v>69469</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3486271168469406</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.280162297297586</v>
+        <v>0.2782442847283648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4287843304645091</v>
+        <v>0.4229954566714481</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>129</v>
@@ -3371,19 +3371,19 @@
         <v>128775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>111565</v>
+        <v>109596</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146936</v>
+        <v>146669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3175297727100012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2750928264775253</v>
+        <v>0.2702372349496223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3623103173933225</v>
+        <v>0.3616510713044613</v>
       </c>
     </row>
     <row r="8">
@@ -3400,19 +3400,19 @@
         <v>120434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>105354</v>
+        <v>105666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>136925</v>
+        <v>137631</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4990618048677429</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4365703699075026</v>
+        <v>0.4378647507091077</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5673986600994612</v>
+        <v>0.5703251080717502</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -3421,19 +3421,19 @@
         <v>72837</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61548</v>
+        <v>60665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87142</v>
+        <v>85300</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4435015616248218</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3747622593041642</v>
+        <v>0.3693865098645</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5306003771585002</v>
+        <v>0.5193854692398686</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>189</v>
@@ -3442,19 +3442,19 @@
         <v>193271</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>173750</v>
+        <v>172980</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>212637</v>
+        <v>213274</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4765621864208924</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4284279854735566</v>
+        <v>0.4265295149493331</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5243129401943729</v>
+        <v>0.5258844095424111</v>
       </c>
     </row>
     <row r="9">
@@ -3546,19 +3546,19 @@
         <v>6053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2153</v>
+        <v>2158</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12941</v>
+        <v>13550</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01464787186543319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005209798225639104</v>
+        <v>0.005222575383057273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0313166464397772</v>
+        <v>0.03278926453766639</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5232</v>
+        <v>4644</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003401053288229624</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01918228426426232</v>
+        <v>0.01702543919990176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3588,19 +3588,19 @@
         <v>6981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2925</v>
+        <v>2440</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14507</v>
+        <v>14694</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01017615772709529</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004263550873277446</v>
+        <v>0.003556321961814288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02114731795490824</v>
+        <v>0.0214202407714643</v>
       </c>
     </row>
     <row r="11">
@@ -3617,19 +3617,19 @@
         <v>14519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8179</v>
+        <v>7953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25090</v>
+        <v>22828</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0351347059579467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01979143217171387</v>
+        <v>0.01924631921885817</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06071475302614538</v>
+        <v>0.05524080876992797</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -3638,19 +3638,19 @@
         <v>4481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11467</v>
+        <v>11676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01642806757065194</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003420298285707167</v>
+        <v>0.003445508725805036</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04204231994396398</v>
+        <v>0.04280703796100371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -3659,19 +3659,19 @@
         <v>19000</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11312</v>
+        <v>11464</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30217</v>
+        <v>30728</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02769698134426849</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01648960207918066</v>
+        <v>0.01671167008732246</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0440484044367481</v>
+        <v>0.04479285414833591</v>
       </c>
     </row>
     <row r="12">
@@ -3688,19 +3688,19 @@
         <v>47317</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33619</v>
+        <v>34123</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61234</v>
+        <v>63938</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1144997046124683</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08135227045607364</v>
+        <v>0.08257386780687614</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1481780328731068</v>
+        <v>0.1547220892955635</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -3709,19 +3709,19 @@
         <v>36456</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25538</v>
+        <v>25765</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49089</v>
+        <v>48071</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1336621472787207</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09363223935672883</v>
+        <v>0.09446463463878374</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1799771030886393</v>
+        <v>0.1762467964258643</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -3730,19 +3730,19 @@
         <v>83773</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69003</v>
+        <v>64922</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>105348</v>
+        <v>102987</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1221186561593044</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1005880428875614</v>
+        <v>0.0946387611931131</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1535697166118955</v>
+        <v>0.1501269500685272</v>
       </c>
     </row>
     <row r="13">
@@ -3759,19 +3759,19 @@
         <v>116264</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>98511</v>
+        <v>97083</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>136970</v>
+        <v>136359</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2813441013500416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2383841466558786</v>
+        <v>0.234926901262412</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3314496028778976</v>
+        <v>0.3299714101251723</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -3780,19 +3780,19 @@
         <v>83452</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69623</v>
+        <v>68871</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98143</v>
+        <v>98388</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3059628248869743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2552603432459496</v>
+        <v>0.2525064401390491</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3598249276517945</v>
+        <v>0.3607262182934037</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>192</v>
@@ -3801,19 +3801,19 @@
         <v>199716</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>176423</v>
+        <v>175498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225376</v>
+        <v>225279</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2911324600180718</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.257177812911591</v>
+        <v>0.2558298300499381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.328537786041755</v>
+        <v>0.3283958114644983</v>
       </c>
     </row>
     <row r="14">
@@ -3830,19 +3830,19 @@
         <v>229093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>207089</v>
+        <v>206770</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>249771</v>
+        <v>248518</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5543736162141103</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5011270933782168</v>
+        <v>0.5003550831081456</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6044117904464494</v>
+        <v>0.6013790987705576</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>140</v>
@@ -3851,19 +3851,19 @@
         <v>147434</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130320</v>
+        <v>131482</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>164089</v>
+        <v>161639</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5405459069754234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4777979502134114</v>
+        <v>0.4820582971696879</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6016066813883447</v>
+        <v>0.5926236629599316</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>344</v>
@@ -3872,19 +3872,19 @@
         <v>376527</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>348506</v>
+        <v>349743</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>402721</v>
+        <v>403912</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.54887574475126</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5080285048242372</v>
+        <v>0.5098313063449276</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5870592666154625</v>
+        <v>0.5887953711764449</v>
       </c>
     </row>
     <row r="15">
@@ -3976,19 +3976,19 @@
         <v>10003</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4633</v>
+        <v>5303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18405</v>
+        <v>18645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02757430338325332</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01277196818841812</v>
+        <v>0.01461794744195547</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05073554097928288</v>
+        <v>0.05139638063973054</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3997,19 +3997,19 @@
         <v>6012</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2070</v>
+        <v>1978</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12071</v>
+        <v>13020</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02230611702601264</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007680343460737634</v>
+        <v>0.00734025609675093</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04478701028595967</v>
+        <v>0.04830893698835811</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -4018,19 +4018,19 @@
         <v>16015</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9243</v>
+        <v>9286</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25072</v>
+        <v>26636</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02532866508838806</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01461866093013347</v>
+        <v>0.01468622077403189</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03965250423882374</v>
+        <v>0.04212536594955236</v>
       </c>
     </row>
     <row r="17">
@@ -4047,19 +4047,19 @@
         <v>25152</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16219</v>
+        <v>16120</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36953</v>
+        <v>37704</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06933422828839168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04470893274339796</v>
+        <v>0.04443493767840682</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1018626468358672</v>
+        <v>0.1039328486027899</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -4068,19 +4068,19 @@
         <v>18638</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11656</v>
+        <v>11731</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28166</v>
+        <v>27969</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06915295299117172</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04324584297617184</v>
+        <v>0.04352365085132681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1045018542257102</v>
+        <v>0.1037731637684904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -4089,19 +4089,19 @@
         <v>43791</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31842</v>
+        <v>31181</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58306</v>
+        <v>57996</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06925695715146792</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05035899070670626</v>
+        <v>0.04931338674031421</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09221297179379245</v>
+        <v>0.09172266579634128</v>
       </c>
     </row>
     <row r="18">
@@ -4118,19 +4118,19 @@
         <v>90511</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>73902</v>
+        <v>72330</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>108140</v>
+        <v>109037</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2494999787438723</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2037172255927607</v>
+        <v>0.1993833672747106</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2980945805973693</v>
+        <v>0.3005676816175573</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>62</v>
@@ -4139,19 +4139,19 @@
         <v>63627</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51145</v>
+        <v>49451</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80372</v>
+        <v>78785</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2360717931221012</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1897600821365941</v>
+        <v>0.1834749326139907</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2982003086997348</v>
+        <v>0.2923130494672772</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>139</v>
@@ -4160,19 +4160,19 @@
         <v>154138</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132582</v>
+        <v>129528</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>177027</v>
+        <v>178264</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2437760263591274</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.209683541668657</v>
+        <v>0.2048544763129184</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2799755236072538</v>
+        <v>0.2819327315941971</v>
       </c>
     </row>
     <row r="19">
@@ -4189,19 +4189,19 @@
         <v>104708</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>87538</v>
+        <v>87390</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123026</v>
+        <v>124232</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2886350372491169</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2413035609174706</v>
+        <v>0.2408958850401131</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.339129747814779</v>
+        <v>0.3424543110793098</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -4210,19 +4210,19 @@
         <v>74312</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60393</v>
+        <v>60691</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89473</v>
+        <v>89598</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2757140636224442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2240712623253149</v>
+        <v>0.2251801818408024</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3319679640944234</v>
+        <v>0.3324313736487759</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>170</v>
@@ -4231,19 +4231,19 @@
         <v>179020</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>156938</v>
+        <v>156544</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>205102</v>
+        <v>201312</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2831272910884063</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2482047682105159</v>
+        <v>0.2475807543406157</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.324377292795419</v>
+        <v>0.3183828255255764</v>
       </c>
     </row>
     <row r="20">
@@ -4260,19 +4260,19 @@
         <v>132395</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114230</v>
+        <v>112864</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151507</v>
+        <v>151888</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3649564523353658</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3148832978366783</v>
+        <v>0.3111175138800786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4176390423904568</v>
+        <v>0.4186894103977584</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>104</v>
@@ -4281,19 +4281,19 @@
         <v>106935</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>90649</v>
+        <v>90880</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>123245</v>
+        <v>122687</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3967550732382703</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3363285800955488</v>
+        <v>0.3371881905832962</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4572699002085971</v>
+        <v>0.4551998487027962</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>225</v>
@@ -4302,19 +4302,19 @@
         <v>239330</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>215933</v>
+        <v>214517</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>264175</v>
+        <v>266109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3785110603126103</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3415065231309644</v>
+        <v>0.3392681361954659</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4178041831675095</v>
+        <v>0.4208635479756144</v>
       </c>
     </row>
     <row r="21">
@@ -4406,19 +4406,19 @@
         <v>3103</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8266</v>
+        <v>8403</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007776125924392875</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002291856072066251</v>
+        <v>0.002307349846860947</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02071714211968356</v>
+        <v>0.02106087876608314</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -4427,19 +4427,19 @@
         <v>8352</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4035</v>
+        <v>4075</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16705</v>
+        <v>15577</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02565954207691359</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01239817947479134</v>
+        <v>0.01252150238705911</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0513253252547932</v>
+        <v>0.04785929678744152</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -4448,19 +4448,19 @@
         <v>11454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5581</v>
+        <v>6002</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20476</v>
+        <v>19830</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01581034587462938</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007702933401165895</v>
+        <v>0.008284620145925011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02826286380494228</v>
+        <v>0.02737114377372675</v>
       </c>
     </row>
     <row r="23">
@@ -4477,19 +4477,19 @@
         <v>5905</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2423</v>
+        <v>1853</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14132</v>
+        <v>12919</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01479848457973339</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006073710921867708</v>
+        <v>0.004645264165439322</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03541820603068168</v>
+        <v>0.03237795015517499</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -4498,19 +4498,19 @@
         <v>4042</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10665</v>
+        <v>10090</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01241968082971809</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003224004929962956</v>
+        <v>0.00315966771427031</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03276884686615339</v>
+        <v>0.03100173790969882</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -4519,19 +4519,19 @@
         <v>9947</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4801</v>
+        <v>4541</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18769</v>
+        <v>18707</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01372979432597689</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006626361414559058</v>
+        <v>0.006267809068431718</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02590746597615536</v>
+        <v>0.02582155836306254</v>
       </c>
     </row>
     <row r="24">
@@ -4548,19 +4548,19 @@
         <v>39461</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28422</v>
+        <v>28917</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52030</v>
+        <v>54707</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0989001185479806</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07123287894405164</v>
+        <v>0.07247275366579808</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1304005541829472</v>
+        <v>0.1371092966387438</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -4569,19 +4569,19 @@
         <v>35216</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24946</v>
+        <v>25330</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47672</v>
+        <v>50168</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1081997553688098</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07664622538480348</v>
+        <v>0.07782412438833583</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1464701497242827</v>
+        <v>0.1541385172419238</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>71</v>
@@ -4590,19 +4590,19 @@
         <v>74677</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57423</v>
+        <v>59026</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92095</v>
+        <v>92789</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1030780299178577</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07926181995247261</v>
+        <v>0.08147348770550436</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1271199315366596</v>
+        <v>0.1280781657159979</v>
       </c>
     </row>
     <row r="25">
@@ -4619,19 +4619,19 @@
         <v>108933</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91423</v>
+        <v>92880</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127204</v>
+        <v>127741</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2730144394407715</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2291306952654762</v>
+        <v>0.2327805707678498</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3188065184044858</v>
+        <v>0.3201511959369227</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -4640,19 +4640,19 @@
         <v>73393</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58421</v>
+        <v>58236</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89386</v>
+        <v>88089</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.225495818600695</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1794949607753926</v>
+        <v>0.178926999944813</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2746335664065326</v>
+        <v>0.2706491573771324</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>176</v>
@@ -4661,19 +4661,19 @@
         <v>182326</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>158781</v>
+        <v>158796</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>206794</v>
+        <v>206914</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2516664459531148</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2191670780850543</v>
+        <v>0.2191882267960478</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2854400687995966</v>
+        <v>0.2856055096354409</v>
       </c>
     </row>
     <row r="26">
@@ -4690,19 +4690,19 @@
         <v>241599</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>222048</v>
+        <v>222060</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>260549</v>
+        <v>261075</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6055108315071217</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5565099426339697</v>
+        <v>0.556540515218837</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6530033169223426</v>
+        <v>0.654322327251687</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>194</v>
@@ -4711,19 +4711,19 @@
         <v>204471</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>186472</v>
+        <v>187102</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>220233</v>
+        <v>222302</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6282252031238635</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5729251615957339</v>
+        <v>0.574859413344204</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6766543609137254</v>
+        <v>0.6830108321797139</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>431</v>
@@ -4732,19 +4732,19 @@
         <v>446070</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>419864</v>
+        <v>420801</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>472766</v>
+        <v>474827</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6157153839284213</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.579542192537053</v>
+        <v>0.5808356244409387</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6525633838947282</v>
+        <v>0.6554086413957083</v>
       </c>
     </row>
     <row r="27">
@@ -4836,19 +4836,19 @@
         <v>23429</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15125</v>
+        <v>14682</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35566</v>
+        <v>35077</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01654197295969511</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01067903491828407</v>
+        <v>0.0103664045031098</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02511111341180397</v>
+        <v>0.0247660446904099</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -4857,19 +4857,19 @@
         <v>16260</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9304</v>
+        <v>9742</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25895</v>
+        <v>24580</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01575569590313318</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00901614293030599</v>
+        <v>0.009439703115118913</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02509242740835852</v>
+        <v>0.02381830527484279</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>37</v>
@@ -4878,19 +4878,19 @@
         <v>39689</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28013</v>
+        <v>28203</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>53316</v>
+        <v>53334</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01621055222457073</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01144160381928483</v>
+        <v>0.01151918608136908</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02177652967074947</v>
+        <v>0.0217839961005769</v>
       </c>
     </row>
     <row r="29">
@@ -4907,19 +4907,19 @@
         <v>54773</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41720</v>
+        <v>40193</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>73396</v>
+        <v>70857</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03867199103263546</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02945646018729462</v>
+        <v>0.02837808057235928</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05182072510695141</v>
+        <v>0.05002835522511006</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -4928,19 +4928,19 @@
         <v>36082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25884</v>
+        <v>25678</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>50198</v>
+        <v>50015</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03496339061530682</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02508168913172517</v>
+        <v>0.02488201188460338</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04864266656303666</v>
+        <v>0.04846514936217312</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>85</v>
@@ -4949,19 +4949,19 @@
         <v>90854</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>72340</v>
+        <v>75129</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>110759</v>
+        <v>114418</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03710879258199262</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02954666198836458</v>
+        <v>0.0306858829642952</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04523888855070249</v>
+        <v>0.04673335427502826</v>
       </c>
     </row>
     <row r="30">
@@ -4978,19 +4978,19 @@
         <v>213190</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>185946</v>
+        <v>184637</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>244397</v>
+        <v>242996</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1505219835896045</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1312866820320643</v>
+        <v>0.1303625132928321</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.172555605494113</v>
+        <v>0.1715665204317025</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>156</v>
@@ -4999,19 +4999,19 @@
         <v>159550</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>138951</v>
+        <v>137477</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>186140</v>
+        <v>184567</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1546058641526799</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1346448257776672</v>
+        <v>0.1332167496326551</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1803708896355655</v>
+        <v>0.1788468546230602</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>347</v>
@@ -5020,19 +5020,19 @@
         <v>372740</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>336180</v>
+        <v>337926</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>410289</v>
+        <v>409839</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1522433649870127</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1373104994410357</v>
+        <v>0.1380238470850372</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1675801130001801</v>
+        <v>0.1673963453610801</v>
       </c>
     </row>
     <row r="31">
@@ -5049,19 +5049,19 @@
         <v>401425</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>368063</v>
+        <v>366063</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>436882</v>
+        <v>435756</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2834245043342091</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2598699114525261</v>
+        <v>0.2584573819697791</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3084588328220446</v>
+        <v>0.3076640645675069</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>287</v>
@@ -5070,19 +5070,19 @@
         <v>288412</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>257647</v>
+        <v>257754</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>314710</v>
+        <v>316843</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2794741276374059</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.249662228613397</v>
+        <v>0.2497664049842475</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3049566196268461</v>
+        <v>0.3070240367039641</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>667</v>
@@ -5091,19 +5091,19 @@
         <v>689837</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>641750</v>
+        <v>649905</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>729782</v>
+        <v>735294</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.281759395657889</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2621186674445151</v>
+        <v>0.2654493834940932</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2980746885362124</v>
+        <v>0.3003261110848855</v>
       </c>
     </row>
     <row r="32">
@@ -5120,19 +5120,19 @@
         <v>723521</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>686541</v>
+        <v>686296</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>761868</v>
+        <v>761088</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5108395480838558</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4847303135405702</v>
+        <v>0.4845567371132194</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5379146856864132</v>
+        <v>0.5373639682265967</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>513</v>
@@ -5141,19 +5141,19 @@
         <v>531678</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>501107</v>
+        <v>499365</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>566751</v>
+        <v>563476</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5152009216914741</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4855773087789723</v>
+        <v>0.48388885061366</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5491868493683983</v>
+        <v>0.5460136689357471</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1189</v>
@@ -5162,19 +5162,19 @@
         <v>1255199</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1206942</v>
+        <v>1204372</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1305898</v>
+        <v>1302400</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.512677894548535</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4929676755342284</v>
+        <v>0.4919183290307537</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5333859492551568</v>
+        <v>0.5319569551611644</v>
       </c>
     </row>
     <row r="33">
